--- a/云咖功能bug列表.xlsx
+++ b/云咖功能bug列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,12 +154,80 @@
     <t>颜色越深优先级越高</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>登录失败原因说明需要反馈出来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>webuserid为零的用户被点击时应当显示该用户的消息记录以及访客信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SendTo_InviteWebUser 发送邀请，邀请web访客参与会话</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecvWebUserInfo 访客名字或标志图标更改的事件处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RecvOffline 如果是本人，做登录者下线处理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>任务栏图标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端的表情点开后，没有任何表情图片加载出来；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信发来的表情图片，没有正常解析显示；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端收到微信发来的截图，双击图片无反应，无法大窗口查看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>客户端截图功能无法用，提示找不到组件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XP系统下登录了一会，自动出现报错，退出了（突然出现的，还没有总结到规律）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在通话中的会话，客户端退出重新登录后，对话列表中不显示刚才的通话了（实际会话未结束，应该显示），如果这时收到访客发来的消息，就能再次显示了；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右侧辅助应答的内容没有正常显示自己后台设置的内容；</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建订单、查询订单，打开后显示百度的页面？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微信会话，点邀请评价，微信端没有收到任何消息，点“结束”“屏蔽”“释放对话”也无反应，点“转接”，对方没有收到转接的消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -216,8 +284,16 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -254,6 +330,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -269,7 +351,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -282,22 +364,28 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -594,10 +682,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -636,8 +724,8 @@
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="5"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
@@ -648,8 +736,8 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="5"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="11"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
@@ -659,9 +747,11 @@
         <v>8</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="5"/>
+      <c r="D4" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -672,8 +762,8 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="11"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
@@ -684,8 +774,8 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="11"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
@@ -696,8 +786,8 @@
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="11"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
       <c r="A8" s="1">
@@ -707,15 +797,17 @@
         <v>12</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="5"/>
-      <c r="H8" s="4" t="s">
+      <c r="D8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="4"/>
+      <c r="H8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="4"/>
-      <c r="J8" s="4"/>
-      <c r="K8" s="4"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1">
       <c r="A9" s="1">
@@ -726,12 +818,12 @@
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="5"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="4"/>
-      <c r="K9" s="4"/>
+      <c r="E9" s="8"/>
+      <c r="F9" s="11"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1">
       <c r="A10" s="1">
@@ -742,12 +834,12 @@
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="5"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="4"/>
-      <c r="K10" s="4"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="11"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
       <c r="A11" s="1">
@@ -758,14 +850,14 @@
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="5"/>
-      <c r="H11" s="4" t="s">
+      <c r="E11" s="8"/>
+      <c r="F11" s="11"/>
+      <c r="H11" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="4"/>
-      <c r="J11" s="4"/>
-      <c r="K11" s="4"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:12" ht="30.75" customHeight="1">
       <c r="A12" s="1">
@@ -776,12 +868,12 @@
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="5"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
-      <c r="J12" s="4"/>
-      <c r="K12" s="4"/>
+      <c r="E12" s="6"/>
+      <c r="F12" s="11"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
       <c r="A13" s="1">
@@ -792,109 +884,205 @@
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
-      <c r="E13" s="7"/>
-      <c r="F13" s="5"/>
-      <c r="H13" s="4" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="11"/>
+      <c r="H13" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="4"/>
-      <c r="J13" s="4"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="4"/>
-      <c r="J14" s="4"/>
-      <c r="K14" s="4"/>
-      <c r="L14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>21</v>
+      </c>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="4"/>
-      <c r="J15" s="4"/>
-      <c r="K15" s="4"/>
-      <c r="L15" s="4"/>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
+      <c r="F15" s="4"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+    </row>
+    <row r="16" spans="1:12" ht="27">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
+      <c r="D16" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
+      <c r="D17" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
+      <c r="D18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>24</v>
+      </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
+      <c r="D19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>26</v>
+      </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
+      <c r="D20" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>27</v>
+      </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>28</v>
+      </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
+      <c r="F22" s="4"/>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>29</v>
+      </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
+      <c r="F23" s="4"/>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>30</v>
+      </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
+      <c r="F24" s="4"/>
+    </row>
+    <row r="25" spans="1:6" ht="27">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>31</v>
+      </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1"/>
-      <c r="B26" s="2"/>
+      <c r="F25" s="4"/>
+    </row>
+    <row r="26" spans="1:6" ht="40.5">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>32</v>
+      </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1"/>
-      <c r="B27" s="2"/>
+      <c r="D26" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="4"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
+      <c r="F27" s="4"/>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="F28" s="4"/>
+    </row>
+    <row r="29" spans="1:6" ht="27">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F29" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/云咖功能bug列表.xlsx
+++ b/云咖功能bug列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
     <t>序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,6 +220,18 @@
   </si>
   <si>
     <t>两</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>发送接受邀请协助时，接受邀请的user的id为0，导致发发送不成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截图后，截图有时不能自动放入发送框，ctrl+v是可以的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -379,14 +391,14 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -682,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:L31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -725,7 +737,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="10"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
@@ -737,7 +749,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="11"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
@@ -763,7 +775,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="11"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
@@ -775,7 +787,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="11"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
@@ -787,7 +799,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="11"/>
+      <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
       <c r="A8" s="1">
@@ -802,12 +814,12 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="4"/>
-      <c r="H8" s="9" t="s">
+      <c r="H8" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="9"/>
-      <c r="J8" s="9"/>
-      <c r="K8" s="9"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1">
       <c r="A9" s="1">
@@ -819,11 +831,11 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="11"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1">
       <c r="A10" s="1">
@@ -835,11 +847,11 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="11"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-      <c r="J10" s="9"/>
-      <c r="K10" s="9"/>
+      <c r="F10" s="10"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
       <c r="A11" s="1">
@@ -851,13 +863,13 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="11"/>
-      <c r="H11" s="9" t="s">
+      <c r="F11" s="10"/>
+      <c r="H11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="9"/>
-      <c r="J11" s="9"/>
-      <c r="K11" s="9"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
     </row>
     <row r="12" spans="1:12" ht="30.75" customHeight="1">
       <c r="A12" s="1">
@@ -869,11 +881,11 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="11"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-      <c r="J12" s="9"/>
-      <c r="K12" s="9"/>
+      <c r="F12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
       <c r="A13" s="1">
@@ -885,14 +897,14 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="11"/>
-      <c r="H13" s="9" t="s">
+      <c r="F13" s="10"/>
+      <c r="H13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="9"/>
-      <c r="J13" s="9"/>
-      <c r="K13" s="9"/>
-      <c r="L13" s="9"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
@@ -900,11 +912,11 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="F14" s="4"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
@@ -916,11 +928,11 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" s="4"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-      <c r="J15" s="9"/>
-      <c r="K15" s="9"/>
-      <c r="L15" s="9"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
     </row>
     <row r="16" spans="1:12" ht="27">
       <c r="A16" s="1">
@@ -1083,6 +1095,30 @@
         <v>35</v>
       </c>
       <c r="F29" s="4"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D30" t="s">
+        <v>40</v>
+      </c>
+      <c r="F30" s="4"/>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/云咖功能bug列表.xlsx
+++ b/云咖功能bug列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
   <si>
     <t>序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,34 @@
   </si>
   <si>
     <t>鲁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>很多时候，用户列表的光标焦点会出现错误，比如当对方接受本人的邀请协助后，光标就跑到别的地方去了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>上边的按钮的灰亮显示出现问题，比如邀请协助对方同意之后，结束释放会话的按钮就变灰了。当是熟人接待策略时，客服是不能释放会话的，应当置灰释放按钮。且协助对象也不能看见该访客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>转接后，访客还留在自己的对话中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>会话转接收到后处理不对</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -694,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L31"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1116,9 +1144,53 @@
         <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="27">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" t="s">
+        <v>43</v>
+      </c>
+      <c r="F32" s="4"/>
+    </row>
+    <row r="33" spans="1:6" ht="40.5">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D33" t="s">
+        <v>36</v>
+      </c>
+      <c r="F33" s="4"/>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D34" t="s">
+        <v>46</v>
+      </c>
+      <c r="F34" s="4"/>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="1">
+        <v>32</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/云咖功能bug列表.xlsx
+++ b/云咖功能bug列表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
   <si>
     <t>序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -260,6 +260,10 @@
   </si>
   <si>
     <t>会话转接收到后处理不对</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>右键菜单在最下边时，看不见被遮盖</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L35"/>
+  <dimension ref="A1:L36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1191,6 +1195,22 @@
       <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
+      <c r="D35" t="s">
+        <v>46</v>
+      </c>
+      <c r="F35" s="4"/>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="1">
+        <v>33</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D36" t="s">
+        <v>46</v>
+      </c>
+      <c r="F36" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/云咖功能bug列表.xlsx
+++ b/云咖功能bug列表.xlsx
@@ -337,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -380,6 +380,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -395,7 +401,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -431,6 +437,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,8 +737,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -795,7 +804,7 @@
         <v>36</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="4"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -845,7 +854,7 @@
         <v>36</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="4"/>
+      <c r="F8" s="10"/>
       <c r="H8" s="11" t="s">
         <v>18</v>
       </c>
@@ -943,7 +952,7 @@
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="F14" s="4"/>
+      <c r="F14" s="12"/>
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>

--- a/云咖功能bug列表.xlsx
+++ b/云咖功能bug列表.xlsx
@@ -337,7 +337,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -376,13 +376,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -401,7 +407,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -429,9 +435,6 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -439,6 +442,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -737,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -778,7 +787,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="9"/>
+      <c r="F2" s="12"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
@@ -790,7 +799,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="10"/>
+      <c r="F3" s="13"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
@@ -804,7 +813,7 @@
         <v>36</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="10"/>
+      <c r="F4" s="13"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -816,7 +825,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="10"/>
+      <c r="F5" s="13"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
@@ -828,7 +837,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="10"/>
+      <c r="F6" s="13"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
@@ -840,7 +849,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="10"/>
+      <c r="F7" s="13"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
       <c r="A8" s="1">
@@ -854,13 +863,13 @@
         <v>36</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="10"/>
-      <c r="H8" s="11" t="s">
+      <c r="F8" s="13"/>
+      <c r="H8" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1">
       <c r="A9" s="1">
@@ -872,11 +881,11 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
+      <c r="F9" s="13"/>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10"/>
+      <c r="K9" s="10"/>
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1">
       <c r="A10" s="1">
@@ -888,11 +897,11 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
+      <c r="F10" s="13"/>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10"/>
+      <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
       <c r="A11" s="1">
@@ -904,13 +913,13 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="10"/>
-      <c r="H11" s="11" t="s">
+      <c r="F11" s="13"/>
+      <c r="H11" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10"/>
+      <c r="K11" s="10"/>
     </row>
     <row r="12" spans="1:12" ht="30.75" customHeight="1">
       <c r="A12" s="1">
@@ -922,11 +931,11 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="10"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
+      <c r="F12" s="13"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10"/>
+      <c r="K12" s="10"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
       <c r="A13" s="1">
@@ -938,26 +947,26 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="10"/>
-      <c r="H13" s="11" t="s">
+      <c r="F13" s="13"/>
+      <c r="H13" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10"/>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
-      <c r="F14" s="12"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
+      <c r="F14" s="9"/>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10"/>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
@@ -969,11 +978,11 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" s="4"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
     </row>
     <row r="16" spans="1:12" ht="27">
       <c r="A16" s="1">
@@ -1049,7 +1058,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="F21" s="4"/>
+      <c r="F21" s="11"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
@@ -1060,7 +1069,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="F22" s="4"/>
+      <c r="F22" s="11"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
@@ -1082,7 +1091,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="F24" s="4"/>
+      <c r="F24" s="11"/>
     </row>
     <row r="25" spans="1:6" ht="27">
       <c r="A25" s="1">
@@ -1093,7 +1102,7 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="F25" s="4"/>
+      <c r="F25" s="11"/>
     </row>
     <row r="26" spans="1:6" ht="40.5">
       <c r="A26" s="1">

--- a/云咖功能bug列表.xlsx
+++ b/云咖功能bug列表.xlsx
@@ -438,17 +438,17 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -787,7 +787,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="7"/>
-      <c r="F2" s="12"/>
+      <c r="F2" s="11"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1">
@@ -799,7 +799,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="7"/>
-      <c r="F3" s="13"/>
+      <c r="F3" s="12"/>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1">
@@ -813,7 +813,7 @@
         <v>36</v>
       </c>
       <c r="E4" s="6"/>
-      <c r="F4" s="13"/>
+      <c r="F4" s="12"/>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1">
@@ -825,7 +825,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="5"/>
-      <c r="F5" s="13"/>
+      <c r="F5" s="12"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1">
@@ -837,7 +837,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="13"/>
+      <c r="F6" s="12"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1">
@@ -849,7 +849,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="13"/>
+      <c r="F7" s="12"/>
     </row>
     <row r="8" spans="1:12" ht="13.5" customHeight="1">
       <c r="A8" s="1">
@@ -863,13 +863,13 @@
         <v>36</v>
       </c>
       <c r="E8" s="7"/>
-      <c r="F8" s="13"/>
-      <c r="H8" s="10" t="s">
+      <c r="F8" s="12"/>
+      <c r="H8" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
+      <c r="K8" s="13"/>
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1">
       <c r="A9" s="1">
@@ -881,11 +881,11 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="13"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
+      <c r="F9" s="12"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
+      <c r="K9" s="13"/>
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1">
       <c r="A10" s="1">
@@ -897,11 +897,11 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="13"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="F10" s="12"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
+      <c r="K10" s="13"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
       <c r="A11" s="1">
@@ -913,13 +913,13 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="13"/>
-      <c r="H11" s="10" t="s">
+      <c r="F11" s="12"/>
+      <c r="H11" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
+      <c r="K11" s="13"/>
     </row>
     <row r="12" spans="1:12" ht="30.75" customHeight="1">
       <c r="A12" s="1">
@@ -931,11 +931,11 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
-      <c r="F12" s="13"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
+      <c r="F12" s="12"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
+      <c r="K12" s="13"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
       <c r="A13" s="1">
@@ -947,14 +947,14 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
-      <c r="F13" s="13"/>
-      <c r="H13" s="10" t="s">
+      <c r="F13" s="12"/>
+      <c r="H13" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
+      <c r="K13" s="13"/>
+      <c r="L13" s="13"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
@@ -962,11 +962,11 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="F14" s="9"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
@@ -978,11 +978,11 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" s="4"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
+      <c r="K15" s="13"/>
+      <c r="L15" s="13"/>
     </row>
     <row r="16" spans="1:12" ht="27">
       <c r="A16" s="1">
@@ -1058,7 +1058,7 @@
       </c>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
-      <c r="F21" s="11"/>
+      <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
@@ -1069,7 +1069,7 @@
       </c>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
-      <c r="F22" s="11"/>
+      <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="1">
@@ -1080,7 +1080,7 @@
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
-      <c r="F23" s="4"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="1">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
-      <c r="F24" s="11"/>
+      <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:6" ht="27">
       <c r="A25" s="1">
@@ -1102,7 +1102,7 @@
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="F25" s="11"/>
+      <c r="F25" s="10"/>
     </row>
     <row r="26" spans="1:6" ht="40.5">
       <c r="A26" s="1">
@@ -1115,7 +1115,7 @@
       <c r="D26" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="4"/>
+      <c r="F26" s="10"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="1">
@@ -1156,7 +1156,7 @@
       <c r="D30" t="s">
         <v>40</v>
       </c>
-      <c r="F30" s="4"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="1">
@@ -1168,7 +1168,7 @@
       <c r="D31" t="s">
         <v>42</v>
       </c>
-      <c r="F31" s="4"/>
+      <c r="F31" s="10"/>
     </row>
     <row r="32" spans="1:6" ht="27">
       <c r="A32" s="1">
@@ -1204,7 +1204,7 @@
       <c r="D34" t="s">
         <v>46</v>
       </c>
-      <c r="F34" s="4"/>
+      <c r="F34" s="12"/>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="1">
@@ -1216,7 +1216,7 @@
       <c r="D35" t="s">
         <v>46</v>
       </c>
-      <c r="F35" s="4"/>
+      <c r="F35" s="12"/>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="1">
@@ -1228,7 +1228,7 @@
       <c r="D36" t="s">
         <v>46</v>
       </c>
-      <c r="F36" s="4"/>
+      <c r="F36" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">

--- a/云咖功能bug列表.xlsx
+++ b/云咖功能bug列表.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="20415" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="20415" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="bug列表" sheetId="1" r:id="rId1"/>
+    <sheet name="未完成功能" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="72">
   <si>
     <t>序列</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -264,6 +264,98 @@
   </si>
   <si>
     <t>右键菜单在最下边时，看不见被遮盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能详述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>截图快捷键，Ctrl+Q</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鲁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能点</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态设置，包括上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统菜单设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动应答设置，具体商议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置提醒方式，具体商议，包括闪动提示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出，注销，自动登录开关</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>添加聊天处提示区域</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提示主要用于提示用户，比如不能给对象发语音，该区域会显示一段提示，并在几秒后该文字消失</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通信等bug测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>筛选访客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过筛选的方式，只显示设定的访客</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邀请语设置，具体商议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访客信息显示的优化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>访客信息栏显示界面优化，字体格式排版等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -407,7 +499,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -449,6 +541,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -746,7 +847,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
@@ -1244,12 +1345,221 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="35.5" customWidth="1"/>
+    <col min="3" max="3" width="49.375" customWidth="1"/>
+    <col min="4" max="4" width="24.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="15">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2" s="16"/>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="15">
+        <v>2</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="16"/>
+      <c r="E3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="15"/>
+      <c r="B4" s="14"/>
+      <c r="C4" t="s">
+        <v>60</v>
+      </c>
+      <c r="D4" s="16"/>
+      <c r="E4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="15"/>
+      <c r="B5" s="14"/>
+      <c r="C5" t="s">
+        <v>59</v>
+      </c>
+      <c r="D5" s="16"/>
+      <c r="E5" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="15"/>
+      <c r="B6" s="14"/>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+      <c r="D6" s="16"/>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="15"/>
+      <c r="B7" s="14"/>
+      <c r="C7" t="s">
+        <v>69</v>
+      </c>
+      <c r="D7" s="16"/>
+      <c r="E7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="15"/>
+      <c r="B8" s="14"/>
+      <c r="C8" t="s">
+        <v>61</v>
+      </c>
+      <c r="D8" s="16"/>
+      <c r="E8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="54">
+      <c r="A9" s="15">
+        <v>3</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="15">
+        <v>4</v>
+      </c>
+      <c r="B10" t="s">
+        <v>66</v>
+      </c>
+      <c r="D10" s="16"/>
+      <c r="E10" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="15">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D11" s="16"/>
+      <c r="E11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="15">
+        <v>6</v>
+      </c>
+      <c r="B12" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="16"/>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="15"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="15"/>
+      <c r="D14" s="16"/>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="15"/>
+      <c r="D15" s="16"/>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="15"/>
+      <c r="D16" s="16"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="15"/>
+      <c r="D17" s="16"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="15"/>
+      <c r="D18" s="16"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="15"/>
+      <c r="D19" s="16"/>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="15"/>
+      <c r="D20" s="16"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="15"/>
+      <c r="D21" s="16"/>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="15"/>
+      <c r="D22" s="16"/>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="D23" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:B8"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/云咖功能bug列表.xlsx
+++ b/云咖功能bug列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="20415" windowHeight="7560" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="20415" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="bug列表" sheetId="1" r:id="rId1"/>
@@ -539,17 +539,17 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -965,12 +965,12 @@
       </c>
       <c r="E8" s="7"/>
       <c r="F8" s="12"/>
-      <c r="H8" s="13" t="s">
+      <c r="H8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15"/>
+      <c r="K8" s="15"/>
     </row>
     <row r="9" spans="1:12" ht="13.5" customHeight="1">
       <c r="A9" s="1">
@@ -983,10 +983,10 @@
       <c r="D9" s="1"/>
       <c r="E9" s="8"/>
       <c r="F9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15"/>
+      <c r="K9" s="15"/>
     </row>
     <row r="10" spans="1:12" ht="13.5" customHeight="1">
       <c r="A10" s="1">
@@ -999,10 +999,10 @@
       <c r="D10" s="1"/>
       <c r="E10" s="8"/>
       <c r="F10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15"/>
+      <c r="K10" s="15"/>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
       <c r="A11" s="1">
@@ -1015,12 +1015,12 @@
       <c r="D11" s="1"/>
       <c r="E11" s="8"/>
       <c r="F11" s="12"/>
-      <c r="H11" s="13" t="s">
+      <c r="H11" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15"/>
+      <c r="K11" s="15"/>
     </row>
     <row r="12" spans="1:12" ht="30.75" customHeight="1">
       <c r="A12" s="1">
@@ -1033,10 +1033,10 @@
       <c r="D12" s="1"/>
       <c r="E12" s="6"/>
       <c r="F12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15"/>
+      <c r="K12" s="15"/>
     </row>
     <row r="13" spans="1:12" ht="13.5" customHeight="1">
       <c r="A13" s="1">
@@ -1049,13 +1049,13 @@
       <c r="D13" s="1"/>
       <c r="E13" s="6"/>
       <c r="F13" s="12"/>
-      <c r="H13" s="13" t="s">
+      <c r="H13" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
+      <c r="I13" s="15"/>
+      <c r="J13" s="15"/>
+      <c r="K13" s="15"/>
+      <c r="L13" s="15"/>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1"/>
@@ -1063,11 +1063,11 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="F14" s="9"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13"/>
-      <c r="L14" s="13"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+      <c r="J14" s="15"/>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1">
@@ -1079,11 +1079,11 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="F15" s="4"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+      <c r="J15" s="15"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
     </row>
     <row r="16" spans="1:12" ht="27">
       <c r="A16" s="1">
@@ -1347,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1376,95 +1376,95 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="15">
+      <c r="A2" s="13">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>53</v>
       </c>
-      <c r="D2" s="16"/>
+      <c r="D2" s="14"/>
       <c r="E2" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="15">
+      <c r="A3" s="13">
         <v>2</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="16" t="s">
         <v>57</v>
       </c>
       <c r="C3" t="s">
         <v>56</v>
       </c>
-      <c r="D3" s="16"/>
+      <c r="D3" s="14"/>
       <c r="E3" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="15"/>
-      <c r="B4" s="14"/>
+      <c r="A4" s="13"/>
+      <c r="B4" s="16"/>
       <c r="C4" t="s">
         <v>60</v>
       </c>
-      <c r="D4" s="16"/>
+      <c r="D4" s="14"/>
       <c r="E4" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="15"/>
-      <c r="B5" s="14"/>
+      <c r="A5" s="13"/>
+      <c r="B5" s="16"/>
       <c r="C5" t="s">
         <v>59</v>
       </c>
-      <c r="D5" s="16"/>
+      <c r="D5" s="14"/>
       <c r="E5" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="15"/>
-      <c r="B6" s="14"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="16"/>
       <c r="C6" t="s">
         <v>58</v>
       </c>
-      <c r="D6" s="16"/>
+      <c r="D6" s="14"/>
       <c r="E6" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="15"/>
-      <c r="B7" s="14"/>
+      <c r="A7" s="13"/>
+      <c r="B7" s="16"/>
       <c r="C7" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="16"/>
+      <c r="D7" s="14"/>
       <c r="E7" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="15"/>
-      <c r="B8" s="14"/>
+      <c r="A8" s="13"/>
+      <c r="B8" s="16"/>
       <c r="C8" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="16"/>
+      <c r="D8" s="14"/>
       <c r="E8" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="54">
-      <c r="A9" s="15">
+      <c r="A9" s="13">
         <v>3</v>
       </c>
       <c r="B9" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="16" t="s">
+      <c r="D9" s="14" t="s">
         <v>64</v>
       </c>
       <c r="E9" t="s">
@@ -1472,19 +1472,19 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="15">
+      <c r="A10" s="13">
         <v>4</v>
       </c>
       <c r="B10" t="s">
         <v>66</v>
       </c>
-      <c r="D10" s="16"/>
+      <c r="D10" s="14"/>
       <c r="E10" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="15">
+      <c r="A11" s="13">
         <v>5</v>
       </c>
       <c r="B11" t="s">
@@ -1493,13 +1493,13 @@
       <c r="C11" t="s">
         <v>68</v>
       </c>
-      <c r="D11" s="16"/>
+      <c r="D11" s="14"/>
       <c r="E11" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="15">
+      <c r="A12" s="13">
         <v>6</v>
       </c>
       <c r="B12" t="s">
@@ -1508,53 +1508,53 @@
       <c r="C12" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="16"/>
+      <c r="D12" s="14"/>
       <c r="E12" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="15"/>
-      <c r="D13" s="16"/>
+      <c r="A13" s="13"/>
+      <c r="D13" s="14"/>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="15"/>
-      <c r="D14" s="16"/>
+      <c r="A14" s="13"/>
+      <c r="D14" s="14"/>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="15"/>
-      <c r="D15" s="16"/>
+      <c r="A15" s="13"/>
+      <c r="D15" s="14"/>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="15"/>
-      <c r="D16" s="16"/>
+      <c r="A16" s="13"/>
+      <c r="D16" s="14"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="15"/>
-      <c r="D17" s="16"/>
+      <c r="A17" s="13"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="15"/>
-      <c r="D18" s="16"/>
+      <c r="A18" s="13"/>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="15"/>
-      <c r="D19" s="16"/>
+      <c r="A19" s="13"/>
+      <c r="D19" s="14"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="15"/>
-      <c r="D20" s="16"/>
+      <c r="A20" s="13"/>
+      <c r="D20" s="14"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="15"/>
-      <c r="D21" s="16"/>
+      <c r="A21" s="13"/>
+      <c r="D21" s="14"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="15"/>
-      <c r="D22" s="16"/>
+      <c r="A22" s="13"/>
+      <c r="D22" s="14"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="D23" s="16"/>
+      <c r="D23" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/云咖功能bug列表.xlsx
+++ b/云咖功能bug列表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="20415" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="20415" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="bug列表" sheetId="1" r:id="rId1"/>
@@ -847,8 +847,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1347,8 +1347,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1383,7 +1383,7 @@
         <v>53</v>
       </c>
       <c r="D2" s="14"/>
-      <c r="E2" t="s">
+      <c r="E2" s="12" t="s">
         <v>54</v>
       </c>
     </row>
